--- a/app/gg_fare_filing.xlsx
+++ b/app/gg_fare_filing.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pingsays/git/pingsays/apps/farefiling/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pingsays/git/farefiling/app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C262296B-0B3A-9342-835B-2A9CBF94B636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2839140D-3D68-484A-9E9B-C11E11A44865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="21380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="80">
   <si>
     <t>sort</t>
   </si>
@@ -804,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -891,6 +891,57 @@
       </c>
       <c r="E4" s="3">
         <v>8000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2400</v>
       </c>
     </row>
   </sheetData>

--- a/app/gg_fare_filing.xlsx
+++ b/app/gg_fare_filing.xlsx
@@ -8,26 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pingsays/git/farefiling/app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2839140D-3D68-484A-9E9B-C11E11A44865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4692A05B-C3C7-4C4E-BB73-5B9312A5AE95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="21380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="21380" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
     <sheet name="cabin_mapping" sheetId="2" r:id="rId2"/>
     <sheet name="season_mapping" sheetId="3" r:id="rId3"/>
     <sheet name="fare_combination" sheetId="4" r:id="rId4"/>
-    <sheet name="L" sheetId="5" r:id="rId5"/>
-    <sheet name="K1" sheetId="6" r:id="rId6"/>
-    <sheet name="H1" sheetId="7" r:id="rId7"/>
-    <sheet name="P" sheetId="8" r:id="rId8"/>
+    <sheet name="config" sheetId="9" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="47">
   <si>
     <t>sort</t>
   </si>
@@ -158,122 +167,23 @@
     <t>OO</t>
   </si>
   <si>
-    <t>origin</t>
-  </si>
-  <si>
-    <t>destination</t>
-  </si>
-  <si>
-    <t>fare_basis</t>
-  </si>
-  <si>
-    <t>ow_rt</t>
-  </si>
-  <si>
-    <t>blank1</t>
-  </si>
-  <si>
-    <t>blank2</t>
-  </si>
-  <si>
-    <t>blank3</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>fare_price</t>
-  </si>
-  <si>
-    <t>NYC</t>
-  </si>
-  <si>
-    <t>JLUS</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>JLOUS</t>
-  </si>
-  <si>
-    <t>CLUS</t>
-  </si>
-  <si>
-    <t>CLOUS</t>
-  </si>
-  <si>
-    <t>DLUS</t>
-  </si>
-  <si>
-    <t>DLOUS</t>
-  </si>
-  <si>
-    <t>JKUS</t>
-  </si>
-  <si>
-    <t>JKOUS</t>
-  </si>
-  <si>
-    <t>CKUS</t>
-  </si>
-  <si>
-    <t>CKOUS</t>
-  </si>
-  <si>
-    <t>DKUS</t>
-  </si>
-  <si>
-    <t>DKOUS</t>
-  </si>
-  <si>
-    <t>JHUS</t>
-  </si>
-  <si>
-    <t>JHOUS</t>
-  </si>
-  <si>
-    <t>CHUS</t>
-  </si>
-  <si>
-    <t>CHOUS</t>
-  </si>
-  <si>
-    <t>DHUS</t>
-  </si>
-  <si>
-    <t>DHOUS</t>
-  </si>
-  <si>
-    <t>JPUS</t>
-  </si>
-  <si>
-    <t>JPOUS</t>
-  </si>
-  <si>
-    <t>CPUS</t>
-  </si>
-  <si>
-    <t>CPOUS</t>
-  </si>
-  <si>
-    <t>DPUS</t>
-  </si>
-  <si>
-    <t>DPOUS</t>
-  </si>
-  <si>
     <t>no_weekday_weekend</t>
   </si>
   <si>
     <t>weekday</t>
+  </si>
+  <si>
+    <t>SGN</t>
+  </si>
+  <si>
+    <t>separate_business_output</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,9 +200,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -303,7 +221,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -311,24 +229,10 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -341,16 +245,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 8" xfId="1" xr:uid="{BEB3FBA1-EAF4-AE42-8D00-E56A9160EA88}"/>
   </cellStyles>
   <dxfs count="25">
     <dxf>
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center"/>
@@ -455,8 +360,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:F71" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
-  <autoFilter ref="A1:F71" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:F86" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <autoFilter ref="A1:F86" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="sort" dataDxfId="22"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="dest" dataDxfId="21"/>
@@ -471,7 +376,6 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:D18" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="A1:D18" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="booking_class" dataDxfId="14"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="cabin" dataDxfId="13"/>
@@ -495,15 +399,24 @@
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1" displayName="Table1" ref="A1:E5" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E5" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="weekday" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="oneway" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="oneway_multiplier" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="weekend_surcharge" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="oneway" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="oneway_mapping" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="oneway_mapping" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{839BE2D9-2739-D24D-BF23-F8C24EBEDE5B}" name="Table5" displayName="Table5" ref="A1:A2" totalsRowShown="0">
+  <autoFilter ref="A1:A2" xr:uid="{839BE2D9-2739-D24D-BF23-F8C24EBEDE5B}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{81B05D0F-ED1E-4549-A667-74BBC04BBB4D}" name="separate_business_output"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -804,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -850,13 +763,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="3">
-        <v>1800</v>
+        <v>10270</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -867,13 +780,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E3" s="3">
-        <v>3500</v>
+        <v>7550</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -884,13 +797,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="E4" s="3">
-        <v>8000</v>
+        <v>5530</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -901,13 +814,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E5" s="3">
-        <v>10000</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -918,13 +831,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E6" s="3">
-        <v>4000</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -935,16 +848,1360 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="3">
+        <v>10330</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="3">
+        <v>7840</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="3">
+        <v>5760</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3770</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="3">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="3">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="3">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="E7" s="3">
-        <v>2400</v>
+      <c r="B36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="3">
+        <v>10390</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="3">
+        <v>7940</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="3">
+        <v>5850</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="3">
+        <v>3820</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="3">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" s="3">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E50" s="3">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" s="3">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="3">
+        <v>10410</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="3">
+        <v>8190</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="3">
+        <v>6070</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="3">
+        <v>3850</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3130</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="3">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="3">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="3">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" s="3">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" s="4">
+        <v>10410</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="4">
+        <v>8190</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" s="4">
+        <v>6070</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" s="4">
+        <v>3850</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
+        <v>73</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" s="4">
+        <v>3130</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
+        <v>74</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" s="4">
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
+        <v>75</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="4">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <v>76</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" s="4">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
+        <v>77</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" s="4">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
+        <v>78</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" s="4">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
+        <v>79</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" s="4">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
+        <v>80</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" s="4">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
+        <v>81</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82" s="4">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
+        <v>82</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" s="4">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
+        <v>83</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>84</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" s="4">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>85</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" s="4">
+        <v>1280</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <tableParts count="1">
@@ -958,13 +2215,13 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
   </cols>
@@ -980,54 +2237,54 @@
         <v>15</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C2" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C3" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D3" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D4" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
@@ -1041,10 +2298,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C6" s="3" t="b">
         <v>0</v>
@@ -1055,10 +2312,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3" t="b">
         <v>0</v>
@@ -1069,10 +2326,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C8" s="3" t="b">
         <v>0</v>
@@ -1083,7 +2340,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>22</v>
@@ -1097,13 +2354,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="3" t="b">
         <v>0</v>
@@ -1111,13 +2368,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="3" t="b">
         <v>0</v>
@@ -1125,7 +2382,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>22</v>
@@ -1139,7 +2396,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>22</v>
@@ -1153,7 +2410,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>22</v>
@@ -1167,13 +2424,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="3" t="b">
         <v>0</v>
@@ -1181,44 +2438,44 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C16" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C17" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C18" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1233,7 +2490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -1333,34 +2590,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="38" width="8.83203125" style="3" customWidth="1"/>
-    <col min="39" max="16384" width="8.83203125" style="3"/>
+    <col min="2" max="2" width="12.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="37" width="8.83203125" style="3" customWidth="1"/>
+    <col min="38" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>40</v>
@@ -1370,13 +2626,13 @@
       <c r="A2" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3" t="b">
+      <c r="D2" s="3">
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -1387,14 +2643,14 @@
       <c r="A3" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D3" s="3">
         <v>80</v>
-      </c>
-      <c r="D3" s="3" t="b">
-        <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>41</v>
@@ -1404,14 +2660,14 @@
       <c r="A4" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
         <v>0.65</v>
       </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="b">
-        <v>1</v>
+      <c r="D4" s="3">
+        <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>42</v>
@@ -1421,14 +2677,14 @@
       <c r="A5" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
         <v>0.65</v>
       </c>
-      <c r="C5" s="3">
+      <c r="D5" s="3">
         <v>40</v>
-      </c>
-      <c r="D5" s="3" t="b">
-        <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>42</v>
@@ -1443,817 +2699,32 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:K7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D86AFF6-317A-544C-9C0F-542021E4A510}">
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="4" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K2">
-        <v>9275</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3">
-        <v>6028.75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K4">
-        <v>7430</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K5">
-        <v>4829.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" t="s">
-        <v>54</v>
-      </c>
-      <c r="K6">
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K7">
-        <v>3510</v>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:K7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K2">
-        <v>9655</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3">
-        <v>6275.75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K4">
-        <v>7720</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K5">
-        <v>5018</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" t="s">
-        <v>54</v>
-      </c>
-      <c r="K6">
-        <v>5630</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K7">
-        <v>3659.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:K7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K2">
-        <v>9765</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3">
-        <v>6347.25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K4">
-        <v>7800</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K5">
-        <v>5070</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" t="s">
-        <v>54</v>
-      </c>
-      <c r="K6">
-        <v>5700</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K7">
-        <v>3705</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:K7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K2">
-        <v>10120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3">
-        <v>6578</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K4">
-        <v>8030</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K5">
-        <v>5219.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" t="s">
-        <v>54</v>
-      </c>
-      <c r="K6">
-        <v>5900</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K7">
-        <v>3835</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>